--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1502027.088077699</v>
+        <v>1499650.461130332</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>56.91750123718787</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5375742161619</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>112.3581576295187</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.781160222249673</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>149.927252272493</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>360.3655810012722</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
@@ -914,7 +914,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,22 +1054,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>31.40395494258357</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>152.5449695980481</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278.4150732167536</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>71.46540913360316</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>35.34544850263634</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>65.49346573995606</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710114</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>103.168699193621</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S13" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187888</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>113.6427030833203</v>
+        <v>102.1557845699831</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710086</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>99.97427419833856</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>68.17501931583824</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936184</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922698</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.8253826161897768</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>75.94597652115795</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>87.21471514852939</v>
+        <v>103.1686991936157</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D34" t="n">
-        <v>78.9105100867805</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936148</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>138.7157037776617</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>102.1557845699769</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.03099717513961764</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>104.8913819999769</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1785.600156360221</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="C2" t="n">
-        <v>1416.63763941981</v>
+        <v>901.822256251568</v>
       </c>
       <c r="D2" t="n">
-        <v>1058.371940813059</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>672.5836882148151</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>261.5977834252075</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y2" t="n">
-        <v>2172.199996424343</v>
+        <v>1270.78477319198</v>
       </c>
     </row>
     <row r="3">
@@ -4389,22 +4389,22 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
@@ -4413,22 +4413,22 @@
         <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.04593830764924</v>
+        <v>270.5950217532751</v>
       </c>
       <c r="C4" t="n">
-        <v>53.04593830764924</v>
+        <v>270.5950217532751</v>
       </c>
       <c r="D4" t="n">
-        <v>53.04593830764924</v>
+        <v>270.5950217532751</v>
       </c>
       <c r="E4" t="n">
-        <v>53.04593830764924</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F4" t="n">
-        <v>53.04593830764924</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>53.04593830764924</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>53.04593830764924</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>825.137147448514</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>570.4526592426272</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056666</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>53.04593830764924</v>
+        <v>673.036065727045</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.04593830764924</v>
+        <v>452.2434865835148</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1785.600156360221</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="C5" t="n">
-        <v>1634.158487398107</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="D5" t="n">
-        <v>1634.158487398107</v>
+        <v>1141.96181897037</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816075</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>2562.339328400155</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y5" t="n">
-        <v>2172.199996424343</v>
+        <v>1500.22751757712</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143495</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>685.1760210978775</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C7" t="n">
-        <v>516.2398381699707</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D7" t="n">
-        <v>366.1231987576349</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4738,37 +4738,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>1315.606615969665</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W7" t="n">
-        <v>1315.606615969665</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="X7" t="n">
-        <v>1087.617065071647</v>
+        <v>535.7199774115529</v>
       </c>
       <c r="Y7" t="n">
-        <v>866.8244859281173</v>
+        <v>381.6341495347366</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1890.972649740754</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="C8" t="n">
-        <v>1522.010132800342</v>
+        <v>926.0589393552734</v>
       </c>
       <c r="D8" t="n">
-        <v>1163.744434193592</v>
+        <v>926.0589393552734</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9561815953474</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057398</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2365.452838973491</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2365.452838973491</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2034.389951629921</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1681.621296359807</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400155</v>
+        <v>1681.621296359807</v>
       </c>
       <c r="Y8" t="n">
-        <v>2172.199996424343</v>
+        <v>1681.621296359807</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429755</v>
+        <v>507.2413987429752</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744472</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M9" t="n">
         <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O9" t="n">
         <v>1884.562538506774</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>685.1760210978775</v>
+        <v>385.8047973518188</v>
       </c>
       <c r="C10" t="n">
-        <v>516.2398381699707</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="D10" t="n">
-        <v>366.1231987576349</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1570.291104175552</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U10" t="n">
-        <v>1570.291104175552</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V10" t="n">
-        <v>1315.606615969665</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="W10" t="n">
-        <v>1315.606615969665</v>
+        <v>606.597376495349</v>
       </c>
       <c r="X10" t="n">
-        <v>1087.617065071647</v>
+        <v>606.597376495349</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.8244859281173</v>
+        <v>385.8047973518188</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551879</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5027,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192622</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111721</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075818</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.26572885226</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398598</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492583</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474788</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466578</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123007</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852893</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591813</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616001</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273919</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803941</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516149</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.079034721981</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>198.0274703142558</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>198.0274703142558</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797196</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S13" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756268</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468477</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>943.5102657467536</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459582</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C16" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D16" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="E16" t="n">
-        <v>599.6019060180513</v>
+        <v>197.004324229773</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038347</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,34 +5531,34 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,19 +5586,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="M18" t="n">
         <v>716.6687843969303</v>
@@ -5653,22 +5653,22 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5741,34 +5741,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5838,10 +5838,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6309,22 +6309,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.777212765616</v>
+        <v>580.0655846733355</v>
       </c>
       <c r="C28" t="n">
-        <v>782.8410298377091</v>
+        <v>411.1294017454286</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>261.0127623330928</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330928</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330928</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.129363765927</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2263.274529420832</v>
       </c>
       <c r="T28" t="n">
-        <v>2187.395141638036</v>
+        <v>2043.673064443773</v>
       </c>
       <c r="U28" t="n">
-        <v>1898.319914982233</v>
+        <v>1754.59783778797</v>
       </c>
       <c r="V28" t="n">
-        <v>1643.635426776346</v>
+        <v>1499.913349582083</v>
       </c>
       <c r="W28" t="n">
-        <v>1354.218256739386</v>
+        <v>1210.496179545123</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.218256739386</v>
+        <v>982.5066286471053</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>761.7140495035752</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400676</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121607</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703073</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6783,22 +6783,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892232</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>924.6979859831846</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C37" t="n">
-        <v>755.7618030552777</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D37" t="n">
-        <v>605.645163642942</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>457.7320700605488</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>457.7320700605488</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7108,37 +7108,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X37" t="n">
-        <v>1327.139029956954</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y37" t="n">
-        <v>1106.346450813424</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,28 +7169,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852254</v>
@@ -7202,22 +7202,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6605733532801</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121598</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297667</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797186</v>
@@ -7336,46 +7336,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3090381835199</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>198.027470314254</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7573,46 +7573,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621885</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
-        <v>162.0073097921331</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>186.5911984019042</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780641</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>54.95314511566545</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241558</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>37.12601365260286</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856549</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>31.77834493961092</v>
+        <v>43.26526345294816</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856549</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>62.35543909864911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>40.3204386478853</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>80.44045370237411</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345295079</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>65.54986409393192</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>141.4594738061303</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>61.40075786968296</v>
+        <v>45.44677382459665</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D34" t="n">
-        <v>69.70496293143185</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>45.44677382459756</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>26.80843451460711</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25442,7 +25442,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345295439</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5536561769552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,19 +25786,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659231</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>938121.6316787518</v>
+        <v>938121.6316787519</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>915359.252231405</v>
+        <v>915359.2522314048</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.2522314048</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.2522314048</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>915359.2522314048</v>
+        <v>915359.2522314047</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.2522314048</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.2522314047</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.2522314048</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.2522314047</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>915359.2522314049</v>
+        <v>915359.2522314045</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26314,46 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="F2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="F2" t="n">
-        <v>504466.6248062537</v>
-      </c>
       <c r="G2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="K2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="L2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="M2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="L2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062537</v>
-      </c>
       <c r="N2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="O2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="O2" t="n">
-        <v>504466.6248062537</v>
-      </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245468</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="G4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8117.312426731962</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731975</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731988</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-828856.4501124511</v>
+        <v>-828856.4501124513</v>
       </c>
       <c r="C6" t="n">
-        <v>285895.3334634687</v>
+        <v>285895.3334634688</v>
       </c>
       <c r="D6" t="n">
-        <v>285895.3334634687</v>
+        <v>285895.3334634684</v>
       </c>
       <c r="E6" t="n">
-        <v>-112258.6590689311</v>
+        <v>-112293.3969943679</v>
       </c>
       <c r="F6" t="n">
-        <v>395226.7825556146</v>
+        <v>395192.044630179</v>
       </c>
       <c r="G6" t="n">
-        <v>395226.7825556144</v>
+        <v>395192.0446301795</v>
       </c>
       <c r="H6" t="n">
-        <v>395226.7825556147</v>
+        <v>395192.0446301789</v>
       </c>
       <c r="I6" t="n">
-        <v>395226.7825556147</v>
+        <v>395192.0446301789</v>
       </c>
       <c r="J6" t="n">
-        <v>227621.604745632</v>
+        <v>227586.8668201964</v>
       </c>
       <c r="K6" t="n">
-        <v>395226.7825556145</v>
+        <v>395192.044630179</v>
       </c>
       <c r="L6" t="n">
-        <v>395226.7825556146</v>
+        <v>395192.044630179</v>
       </c>
       <c r="M6" t="n">
-        <v>262619.4888266879</v>
+        <v>262584.7509012519</v>
       </c>
       <c r="N6" t="n">
-        <v>395226.7825556147</v>
+        <v>395192.0446301789</v>
       </c>
       <c r="O6" t="n">
-        <v>395226.7825556146</v>
+        <v>395192.0446301789</v>
       </c>
       <c r="P6" t="n">
-        <v>395226.7825556147</v>
+        <v>395192.0446301788</v>
       </c>
     </row>
   </sheetData>
@@ -26738,16 +26738,16 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.70828809965</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241353</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996107</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996104</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996107</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>297.7655403834951</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>269.0101285567921</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>34.07580501705048</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,7 +27555,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>103.0154349816509</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>215.3456394985146</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>21.56478907098955</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>220.7336883812444</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>66.03968375404665</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104.3187684467269</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>135.1927758466306</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>131.9013725959915</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,22 +28059,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>155.2552302572559</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29706,7 +29706,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473077</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724541</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485293</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418562</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>508.3747716989711</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862126</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437247</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418562</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>616.5397119226052</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
@@ -32558,13 +32558,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>688.8020111197783</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>714.932815742495</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33029,7 +33029,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,25 +33503,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>653.3850396373771</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>454.8099857531869</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33992,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,25 +34442,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>452.3405299254388</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34781,13 +34781,13 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>528.9386420741737</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>577.7882979947782</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
@@ -34799,7 +34799,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215489</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>304.6326742391977</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676406</v>
+        <v>397.6203974676403</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>568.1422977634695</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774986</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678999</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674335</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>159.0482712280097</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789222</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899077</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678999</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>369.8203919190969</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992803</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789222</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191317</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899077</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394599</v>
+        <v>477.985332142731</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
@@ -36206,13 +36206,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>546.2057666753338</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36528,7 +36528,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36677,7 +36677,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060414</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>510.7887951929326</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060407</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37640,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37704,7 +37704,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191269</v>
       </c>
       <c r="M40" t="n">
         <v>426.2724270010451</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191298</v>
       </c>
       <c r="M43" t="n">
         <v>426.2724270010451</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
